--- a/SZMK.Desktop/bin/Debug/Program/Templates/ReportMarkTemplate.xlsx
+++ b/SZMK.Desktop/bin/Debug/Program/Templates/ReportMarkTemplate.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Профиль</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Вес, кг</t>
+  </si>
+  <si>
+    <t>Лист</t>
   </si>
 </sst>
 </file>
@@ -382,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,9 +398,10 @@
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="6" width="21.140625" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -407,9 +411,10 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -417,21 +422,24 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
